--- a/docs/error_testing/error_test_log-version-1.8.0.xlsx
+++ b/docs/error_testing/error_test_log-version-1.8.0.xlsx
@@ -5,17 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/83de8ba5227136f4/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shah_\Desktop\Ryu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="295" documentId="11_AD4D1D646341095ACB7000C98512D600683EDF16" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F318EFEF-82DF-41FE-926D-06A3D811343B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38C9BC1B-4DF7-469D-8463-B4450D9ACE27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="User Requirements" sheetId="1" r:id="rId1"/>
     <sheet name="GUI" sheetId="2" r:id="rId2"/>
-    <sheet name="Validation" sheetId="3" r:id="rId3"/>
+    <sheet name="Validation" sheetId="5" r:id="rId3"/>
     <sheet name="Algorithms" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="76">
   <si>
     <t>Test Case</t>
   </si>
@@ -67,9 +67,6 @@
     <t>Under 8 chars + no non-alnum char</t>
   </si>
   <si>
-    <t>KEY:</t>
-  </si>
-  <si>
     <t>5gd!a</t>
   </si>
   <si>
@@ -122,12 +119,6 @@
   </si>
   <si>
     <t>Normal</t>
-  </si>
-  <si>
-    <t>Warning Screen Given</t>
-  </si>
-  <si>
-    <t>No Warning Screen</t>
   </si>
   <si>
     <t>m37J%4baRt4</t>
@@ -280,6 +271,12 @@
   </si>
   <si>
     <t>~$Q @#Q3'$Q!A8E</t>
+  </si>
+  <si>
+    <t>Warning</t>
+  </si>
+  <si>
+    <t>No Warning</t>
   </si>
 </sst>
 </file>
@@ -339,18 +336,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -375,21 +366,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -516,7 +507,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>347909</xdr:colOff>
+      <xdr:colOff>62159</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>125988</xdr:rowOff>
     </xdr:to>
@@ -525,7 +516,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10D3261D-40F5-E0DF-9CA7-690A32A84B28}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00CA8BA2-3393-4E0A-8786-BE0DD882D602}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -541,8 +532,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="419100" y="289560"/>
-          <a:ext cx="8592749" cy="1848108"/>
+          <a:off x="419100" y="297180"/>
+          <a:ext cx="8396534" cy="1924308"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -554,22 +545,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>518160</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>47425</xdr:rowOff>
+      <xdr:colOff>413385</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>66475</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7DDFDB5-36C0-A978-0A26-7F396D50D246}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F6B1CE0-5EAA-4D57-B40A-DD646FAF61D6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -585,8 +576,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8663940" y="3474720"/>
-          <a:ext cx="2423160" cy="961825"/>
+          <a:off x="8772525" y="2876550"/>
+          <a:ext cx="2385060" cy="999925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -914,9 +905,9 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="8.88671875" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -931,19 +922,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="31.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="23.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>0</v>
       </c>
@@ -954,134 +945,134 @@
         <v>4</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G15" s="5"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+      <c r="G15" s="4"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E16" s="3"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B17" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" s="4" t="s">
+      <c r="D18" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E17" s="3"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B18" t="s">
+      <c r="C20" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="D20" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
         <v>39</v>
       </c>
-      <c r="D18" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E18" s="3"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B20" t="s">
+      <c r="C21" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
         <v>40</v>
       </c>
-      <c r="C20" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E20" s="3"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B21" t="s">
-        <v>42</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E21" s="3"/>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B22" t="s">
-        <v>43</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E22" s="3"/>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
+      <c r="C22" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E22" s="2"/>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1090,22 +1081,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F4ED74D-8A59-4871-9284-1ED51B2CB8DF}">
-  <dimension ref="B15:J29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{165EBC00-1FD2-4BA1-A66D-3078979CC590}">
+  <dimension ref="B15:I29"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="26.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>0</v>
       </c>
@@ -1122,12 +1113,12 @@
         <v>4</v>
       </c>
       <c r="I15" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B16" t="s">
-        <v>10</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
@@ -1135,16 +1126,14 @@
       <c r="D16" t="s">
         <v>7</v>
       </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="I16" t="s">
-        <v>28</v>
-      </c>
-      <c r="J16" s="2"/>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="E16" t="s">
+        <v>74</v>
+      </c>
+      <c r="F16" s="11"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
@@ -1152,16 +1141,14 @@
       <c r="D17" t="s">
         <v>6</v>
       </c>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="I17" t="s">
-        <v>29</v>
-      </c>
-      <c r="J17" s="3"/>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="E17" t="s">
+        <v>74</v>
+      </c>
+      <c r="F17" s="11"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
@@ -1169,108 +1156,121 @@
       <c r="D18" t="s">
         <v>8</v>
       </c>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="I19" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="E18" t="s">
+        <v>74</v>
+      </c>
+      <c r="F18" s="11"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" t="s">
         <v>15</v>
       </c>
-      <c r="C20" t="s">
+      <c r="E20" t="s">
+        <v>74</v>
+      </c>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" t="s">
+        <v>75</v>
+      </c>
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" t="s">
         <v>13</v>
       </c>
-      <c r="D20" t="s">
-        <v>16</v>
-      </c>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B21" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" t="s">
-        <v>17</v>
-      </c>
-      <c r="D21" t="s">
-        <v>18</v>
-      </c>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B22" t="s">
+      <c r="E22" t="s">
+        <v>75</v>
+      </c>
+      <c r="F22" s="2"/>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" t="s">
         <v>20</v>
       </c>
-      <c r="C22" t="s">
-        <v>17</v>
-      </c>
-      <c r="D22" t="s">
-        <v>14</v>
-      </c>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B24" t="s">
+      <c r="D24" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24" t="s">
+        <v>74</v>
+      </c>
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
         <v>23</v>
       </c>
-      <c r="C24" t="s">
-        <v>21</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B25" t="s">
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>75</v>
+      </c>
+      <c r="F25" s="2"/>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" t="s">
         <v>26</v>
       </c>
-      <c r="C25" t="s">
-        <v>24</v>
-      </c>
-      <c r="D25" t="s">
-        <v>25</v>
-      </c>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B27" t="s">
+      <c r="E27" t="s">
+        <v>75</v>
+      </c>
+      <c r="F27" s="2"/>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="E28" t="s">
+        <v>75</v>
+      </c>
+      <c r="F28" s="2"/>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
         <v>30</v>
       </c>
-      <c r="C27" t="s">
-        <v>27</v>
-      </c>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B28" t="s">
-        <v>32</v>
-      </c>
-      <c r="C28" t="s">
-        <v>27</v>
-      </c>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B29" t="s">
-        <v>33</v>
-      </c>
       <c r="C29" t="s">
-        <v>27</v>
-      </c>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
+        <v>26</v>
+      </c>
+      <c r="E29" t="s">
+        <v>75</v>
+      </c>
+      <c r="F29" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1284,114 +1284,114 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="35" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="34.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="32.33203125" customWidth="1"/>
-    <col min="10" max="10" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.28515625" customWidth="1"/>
+    <col min="10" max="10" width="21.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B21" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B22" s="10"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B23" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" t="s">
+        <v>50</v>
+      </c>
+      <c r="D24" s="3" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B21" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B22" s="8"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B23" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B24" t="s">
-        <v>54</v>
-      </c>
-      <c r="C24" t="s">
+      <c r="E24" s="3" t="s">
         <v>53</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>56</v>
       </c>
       <c r="F24" t="str">
         <f>E24</f>
         <v>/LSSVfT`fUHTLfPZf)VI</v>
       </c>
-      <c r="G24" s="4" t="str">
+      <c r="G24" s="3" t="str">
         <f>D24</f>
         <v>S3cR$tP4ssw0rd</v>
       </c>
       <c r="H24" t="s">
-        <v>53</v>
-      </c>
-      <c r="I24" s="3"/>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+      <c r="I24" s="2"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" t="s">
         <v>54</v>
       </c>
-      <c r="C25" t="s">
-        <v>57</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>69</v>
+      <c r="D25" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>66</v>
       </c>
       <c r="F25" t="str">
         <f>E25</f>
@@ -1402,25 +1402,25 @@
         <v>Ur4q2U^e"</v>
       </c>
       <c r="H25" t="s">
+        <v>54</v>
+      </c>
+      <c r="I25" s="7"/>
+      <c r="J25" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" t="s">
+        <v>56</v>
+      </c>
+      <c r="D26" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="I25" s="10"/>
-      <c r="J25" s="11" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B26" t="s">
-        <v>54</v>
-      </c>
-      <c r="C26" t="s">
-        <v>59</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>72</v>
+      <c r="E26" s="3" t="s">
+        <v>69</v>
       </c>
       <c r="F26" t="str">
         <f>E26</f>
@@ -1431,30 +1431,30 @@
         <v>7Hnsj4^4££</v>
       </c>
       <c r="H26" t="s">
-        <v>59</v>
-      </c>
-      <c r="I26" s="3"/>
-      <c r="J26" s="9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="J27" s="11"/>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+      <c r="I26" s="2"/>
+      <c r="J26" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="J27" s="8"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C28" t="s">
-        <v>53</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>75</v>
+        <v>50</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>72</v>
       </c>
       <c r="F28" t="str">
         <f>E28</f>
@@ -1465,25 +1465,25 @@
         <v>S3cR$tP4ssw0rd</v>
       </c>
       <c r="H28" t="s">
-        <v>53</v>
-      </c>
-      <c r="I28" s="6"/>
-      <c r="J28" s="11" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+      <c r="I28" s="5"/>
+      <c r="J28" s="8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C29" t="s">
-        <v>57</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>62</v>
+        <v>54</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="F29" t="str">
         <f>E29</f>
@@ -1494,23 +1494,23 @@
         <v>Ur4q2U^e"</v>
       </c>
       <c r="H29" t="s">
+        <v>54</v>
+      </c>
+      <c r="I29" s="2"/>
+      <c r="J29" s="8"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>58</v>
+      </c>
+      <c r="C30" t="s">
+        <v>56</v>
+      </c>
+      <c r="D30" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="I29" s="3"/>
-      <c r="J29" s="11"/>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B30" t="s">
-        <v>61</v>
-      </c>
-      <c r="C30" t="s">
-        <v>59</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>76</v>
+      <c r="E30" s="3" t="s">
+        <v>73</v>
       </c>
       <c r="F30" t="str">
         <f>E30</f>
@@ -1521,28 +1521,28 @@
         <v>7Hnsj4^4££</v>
       </c>
       <c r="H30" t="s">
-        <v>59</v>
-      </c>
-      <c r="I30" s="3"/>
-      <c r="J30" s="9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="J31" s="11"/>
-    </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+      <c r="I30" s="2"/>
+      <c r="J30" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J31" s="8"/>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C32" t="s">
-        <v>53</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>55</v>
+        <v>50</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="E32" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F32" t="str">
         <f t="shared" ref="F32:F34" si="1">E32</f>
@@ -1553,23 +1553,23 @@
         <v>S3cR$tP4ssw0rd</v>
       </c>
       <c r="H32" t="s">
-        <v>53</v>
-      </c>
-      <c r="I32" s="3"/>
-      <c r="J32" s="11"/>
-    </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+      <c r="I32" s="2"/>
+      <c r="J32" s="8"/>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C33" t="s">
-        <v>57</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="E33" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F33" t="str">
         <f t="shared" si="1"/>
@@ -1580,23 +1580,23 @@
         <v>Ur4q2U^e"</v>
       </c>
       <c r="H33" t="s">
+        <v>54</v>
+      </c>
+      <c r="I33" s="2"/>
+      <c r="J33" s="8"/>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>60</v>
+      </c>
+      <c r="C34" t="s">
+        <v>56</v>
+      </c>
+      <c r="D34" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="I33" s="3"/>
-      <c r="J33" s="11"/>
-    </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B34" t="s">
+      <c r="E34" t="s">
         <v>63</v>
-      </c>
-      <c r="C34" t="s">
-        <v>59</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="E34" t="s">
-        <v>66</v>
       </c>
       <c r="F34" t="str">
         <f t="shared" si="1"/>
@@ -1607,10 +1607,10 @@
         <v>7Hnsj4^4££</v>
       </c>
       <c r="H34" t="s">
-        <v>59</v>
-      </c>
-      <c r="I34" s="3"/>
-      <c r="J34" s="11"/>
+        <v>56</v>
+      </c>
+      <c r="I34" s="2"/>
+      <c r="J34" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="3">
